--- a/biology/Botanique/Dietes_robinsoniana/Dietes_robinsoniana.xlsx
+++ b/biology/Botanique/Dietes_robinsoniana/Dietes_robinsoniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dietes robinsoniana est une espèce de la famille des Iridaceae endémique de l'île Lord Howe en Australie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dietes robinsoniana est une espèce de la famille des Iridaceae endémique de l'île Lord Howe en Australie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dietes robinsoniana pousse en bordure de forêt et sur les sommets des monts Gower et Lidgbird et derrière les plages de l'île Lord Howe.
 C'est l'une des disjonctions biogéographiques les plus intrigantes et les plus remarquables au monde, ses plus proches parents phylogénétiques se situant en Afrique.  
